--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -265,7 +265,7 @@
     <t xml:space="preserve">ABC10003</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-13</t>
+    <t xml:space="preserve">2023-08-01</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-20</t>
@@ -431,8 +431,8 @@
   </sheetPr>
   <dimension ref="A1:BW1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
+    <t xml:space="preserve">creationDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">issueNumber</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t xml:space="preserve">contractNo</t>
   </si>
   <si>
-    <t xml:space="preserve">creationDate</t>
-  </si>
-  <si>
     <t xml:space="preserve">effectiveDate</t>
   </si>
   <si>
@@ -244,6 +244,9 @@
     <t xml:space="preserve">streetName</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-08-16</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
@@ -263,9 +266,6 @@
   </si>
   <si>
     <t xml:space="preserve">ABC10003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-01</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-20</t>
@@ -431,25 +431,25 @@
   </sheetPr>
   <dimension ref="A1:BW1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="7.67"/>
@@ -503,10 +503,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="76" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="77" style="1" width="14.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>47</v>
@@ -740,11 +740,11 @@
       <c r="B2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>77</v>
@@ -756,13 +756,13 @@
         <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>81</v>
@@ -774,13 +774,13 @@
         <v>83</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>84</v>
@@ -789,13 +789,13 @@
         <v>85</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>87</v>
@@ -807,7 +807,7 @@
         <v>89</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>86</v>
@@ -825,7 +825,7 @@
         <v>93</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>34</v>
@@ -837,7 +837,7 @@
         <v>95</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>96</v>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -244,7 +244,7 @@
     <t xml:space="preserve">streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -432,7 +432,7 @@
   <dimension ref="A1:BW1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D345129F-6BF3-4E18-BFD0-F0E117A81D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7E6D1-A74D-485B-97C2-438322A9D5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <t>บ้านนา</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -680,10 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BX1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7E6D1-A74D-485B-97C2-438322A9D5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8C22C3-36CC-4768-86DA-1D07939D3ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <t>บ้านนา</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8C22C3-36CC-4768-86DA-1D07939D3ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A508D4-CD2D-407B-B33F-31CDAC7B79AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
   <si>
     <t>creationDate</t>
   </si>
@@ -267,61 +267,61 @@
     <t>AS9</t>
   </si>
   <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>51000</t>
+  </si>
+  <si>
+    <t>0105556078229</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>1721000011382</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Kittisak</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Bangna</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>test.gamekittisak@gmail.com</t>
+  </si>
+  <si>
+    <t>10600</t>
+  </si>
+  <si>
+    <t>บ้านนา</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
     <t>ABC10003</t>
-  </si>
-  <si>
-    <t>2023-08-20</t>
-  </si>
-  <si>
-    <t>2024-05-10</t>
-  </si>
-  <si>
-    <t>51000</t>
-  </si>
-  <si>
-    <t>0105556078229</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>1721000011382</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Kittisak</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Bangna</t>
-  </si>
-  <si>
-    <t>Bangkok</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>SPL</t>
-  </si>
-  <si>
-    <t>test.gamekittisak@gmail.com</t>
-  </si>
-  <si>
-    <t>10600</t>
-  </si>
-  <si>
-    <t>บ้านนา</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BX1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,11 +986,8 @@
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -1017,13 +1014,13 @@
         <v>78</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>74</v>
@@ -1035,46 +1032,46 @@
         <v>74</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>78</v>
@@ -1083,31 +1080,31 @@
         <v>34</v>
       </c>
       <c r="BE2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="BI2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BK2" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="BL2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="BO2" s="1" t="s">
         <v>65</v>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A508D4-CD2D-407B-B33F-31CDAC7B79AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3EBFED-FEB9-4882-81CB-F60D1910CBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -318,10 +318,10 @@
     <t>บ้านนา</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t>ABC10003</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BX1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +987,7 @@
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>75</v>
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>80</v>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D654C35-45E1-4B55-8227-F435F96E2551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112DB6EB-1532-4165-887E-6123242A7A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <t>ABC10003</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112DB6EB-1532-4165-887E-6123242A7A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A36384C-C9C8-4474-8B37-08FFD470156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <t>ABC10003</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -384,9 +384,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,7 +424,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -530,7 +530,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -672,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD032613-C45D-48E3-9B8A-937516068EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1444C9-59F7-4941-AEFE-FB56069FBF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <t>ABC10003</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -384,9 +384,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,7 +424,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -530,7 +530,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -672,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1444C9-59F7-4941-AEFE-FB56069FBF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2D5FAC-87DE-465C-B4D5-F322053CCF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <t>ABC10003</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/test/Auto_Type1_Edit.xlsx
+++ b/Data Files/test/Auto_Type1_Edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2D5FAC-87DE-465C-B4D5-F322053CCF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F0AB31-AC4C-4E59-BAC9-148244EC4242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <t>ABC10003</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
